--- a/data/formatted/basicdata201011.xlsx
+++ b/data/formatted/basicdata201011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7039235-6F9E-4C8E-BA2B-B7C4D612CBBE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74483A3A-E6A2-46DA-BE57-779495E914AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{1955CC9D-1D7B-4697-A0AB-1B9A005A183A}"/>
+    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{B36472CF-8BC0-4C42-91DD-E1678EA5732D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -112,6 +112,210 @@
   </si>
   <si>
     <t>PersonalFouls</t>
+  </si>
+  <si>
+    <t>Akron NCAA</t>
+  </si>
+  <si>
+    <t>Alabama-Birmingham NCAA</t>
+  </si>
+  <si>
+    <t>Alabama State NCAA</t>
+  </si>
+  <si>
+    <t>Arizona NCAA</t>
+  </si>
+  <si>
+    <t>Little Rock NCAA</t>
+  </si>
+  <si>
+    <t>Belmont NCAA</t>
+  </si>
+  <si>
+    <t>Boston University NCAA</t>
+  </si>
+  <si>
+    <t>Brigham Young NCAA</t>
+  </si>
+  <si>
+    <t>Bucknell NCAA</t>
+  </si>
+  <si>
+    <t>Butler NCAA</t>
+  </si>
+  <si>
+    <t>UC-Santa Barbara NCAA</t>
+  </si>
+  <si>
+    <t>Cincinnati NCAA</t>
+  </si>
+  <si>
+    <t>Clemson NCAA</t>
+  </si>
+  <si>
+    <t>Connecticut NCAA</t>
+  </si>
+  <si>
+    <t>Duke NCAA</t>
+  </si>
+  <si>
+    <t>Florida State NCAA</t>
+  </si>
+  <si>
+    <t>Florida NCAA</t>
+  </si>
+  <si>
+    <t>George Mason NCAA</t>
+  </si>
+  <si>
+    <t>Georgetown NCAA</t>
+  </si>
+  <si>
+    <t>Georgia NCAA</t>
+  </si>
+  <si>
+    <t>Gonzaga NCAA</t>
+  </si>
+  <si>
+    <t>Hampton NCAA</t>
+  </si>
+  <si>
+    <t>Illinois NCAA</t>
+  </si>
+  <si>
+    <t>Indiana State NCAA</t>
+  </si>
+  <si>
+    <t>Kansas State NCAA</t>
+  </si>
+  <si>
+    <t>Kansas NCAA</t>
+  </si>
+  <si>
+    <t>Kentucky NCAA</t>
+  </si>
+  <si>
+    <t>Long Island University NCAA</t>
+  </si>
+  <si>
+    <t>Louisville NCAA</t>
+  </si>
+  <si>
+    <t>Marquette NCAA</t>
+  </si>
+  <si>
+    <t>Memphis NCAA</t>
+  </si>
+  <si>
+    <t>Michigan State NCAA</t>
+  </si>
+  <si>
+    <t>Michigan NCAA</t>
+  </si>
+  <si>
+    <t>Missouri NCAA</t>
+  </si>
+  <si>
+    <t>Morehead State NCAA</t>
+  </si>
+  <si>
+    <t>Nevada-Las Vegas NCAA</t>
+  </si>
+  <si>
+    <t>North Carolina-Asheville NCAA</t>
+  </si>
+  <si>
+    <t>North Carolina NCAA</t>
+  </si>
+  <si>
+    <t>Northern Colorado NCAA</t>
+  </si>
+  <si>
+    <t>Notre Dame NCAA</t>
+  </si>
+  <si>
+    <t>Oakland NCAA</t>
+  </si>
+  <si>
+    <t>Ohio State NCAA</t>
+  </si>
+  <si>
+    <t>Old Dominion NCAA</t>
+  </si>
+  <si>
+    <t>Penn State NCAA</t>
+  </si>
+  <si>
+    <t>Pittsburgh NCAA</t>
+  </si>
+  <si>
+    <t>Princeton NCAA</t>
+  </si>
+  <si>
+    <t>Purdue NCAA</t>
+  </si>
+  <si>
+    <t>Richmond NCAA</t>
+  </si>
+  <si>
+    <t>Saint Peter's NCAA</t>
+  </si>
+  <si>
+    <t>San Diego State NCAA</t>
+  </si>
+  <si>
+    <t>Southern California NCAA</t>
+  </si>
+  <si>
+    <t>St. John's (NY) NCAA</t>
+  </si>
+  <si>
+    <t>Syracuse NCAA</t>
+  </si>
+  <si>
+    <t>Temple NCAA</t>
+  </si>
+  <si>
+    <t>Tennessee NCAA</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M NCAA</t>
+  </si>
+  <si>
+    <t>Texas-San Antonio NCAA</t>
+  </si>
+  <si>
+    <t>Texas NCAA</t>
+  </si>
+  <si>
+    <t>UCLA NCAA</t>
+  </si>
+  <si>
+    <t>Utah State NCAA</t>
+  </si>
+  <si>
+    <t>Vanderbilt NCAA</t>
+  </si>
+  <si>
+    <t>Villanova NCAA</t>
+  </si>
+  <si>
+    <t>Virginia Commonwealth NCAA</t>
+  </si>
+  <si>
+    <t>Washington NCAA</t>
+  </si>
+  <si>
+    <t>West Virginia NCAA</t>
+  </si>
+  <si>
+    <t>Wisconsin NCAA</t>
+  </si>
+  <si>
+    <t>Wofford NCAA</t>
+  </si>
+  <si>
+    <t>Xavier NCAA</t>
   </si>
 </sst>
 </file>
@@ -462,11 +666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F310A7-A3A6-426E-8B07-E9DA7AF74CAB}">
-  <dimension ref="A1:AA1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F368E1-023D-4BAD-AEC4-DB93CF3508D4}">
+  <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA1"/>
+      <selection sqref="A1:AA69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,6 +758,5650 @@
         <v>26</v>
       </c>
     </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>2.15</v>
+      </c>
+      <c r="F2">
+        <v>-1.02</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>2524</v>
+      </c>
+      <c r="N2">
+        <v>2365</v>
+      </c>
+      <c r="O2">
+        <v>892</v>
+      </c>
+      <c r="P2">
+        <v>2073</v>
+      </c>
+      <c r="Q2">
+        <v>283</v>
+      </c>
+      <c r="R2">
+        <v>785</v>
+      </c>
+      <c r="S2">
+        <v>457</v>
+      </c>
+      <c r="T2">
+        <v>649</v>
+      </c>
+      <c r="U2">
+        <v>363</v>
+      </c>
+      <c r="V2">
+        <v>1238</v>
+      </c>
+      <c r="W2">
+        <v>520</v>
+      </c>
+      <c r="X2">
+        <v>240</v>
+      </c>
+      <c r="Y2">
+        <v>129</v>
+      </c>
+      <c r="Z2">
+        <v>432</v>
+      </c>
+      <c r="AA2">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="F3">
+        <v>2.78</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>2119</v>
+      </c>
+      <c r="N3">
+        <v>1940</v>
+      </c>
+      <c r="O3">
+        <v>756</v>
+      </c>
+      <c r="P3">
+        <v>1725</v>
+      </c>
+      <c r="Q3">
+        <v>239</v>
+      </c>
+      <c r="R3">
+        <v>698</v>
+      </c>
+      <c r="S3">
+        <v>368</v>
+      </c>
+      <c r="T3">
+        <v>513</v>
+      </c>
+      <c r="U3">
+        <v>352</v>
+      </c>
+      <c r="V3">
+        <v>1109</v>
+      </c>
+      <c r="W3">
+        <v>420</v>
+      </c>
+      <c r="X3">
+        <v>164</v>
+      </c>
+      <c r="Y3">
+        <v>97</v>
+      </c>
+      <c r="Z3">
+        <v>387</v>
+      </c>
+      <c r="AA3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>-13.37</v>
+      </c>
+      <c r="F4">
+        <v>-10.31</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <v>2146</v>
+      </c>
+      <c r="N4">
+        <v>2234</v>
+      </c>
+      <c r="O4">
+        <v>728</v>
+      </c>
+      <c r="P4">
+        <v>1841</v>
+      </c>
+      <c r="Q4">
+        <v>165</v>
+      </c>
+      <c r="R4">
+        <v>583</v>
+      </c>
+      <c r="S4">
+        <v>525</v>
+      </c>
+      <c r="T4">
+        <v>870</v>
+      </c>
+      <c r="U4">
+        <v>460</v>
+      </c>
+      <c r="V4">
+        <v>1271</v>
+      </c>
+      <c r="W4">
+        <v>404</v>
+      </c>
+      <c r="X4">
+        <v>255</v>
+      </c>
+      <c r="Y4">
+        <v>163</v>
+      </c>
+      <c r="Z4">
+        <v>551</v>
+      </c>
+      <c r="AA4">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>16.54</v>
+      </c>
+      <c r="F5">
+        <v>7.99</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>2905</v>
+      </c>
+      <c r="N5">
+        <v>2580</v>
+      </c>
+      <c r="O5">
+        <v>969</v>
+      </c>
+      <c r="P5">
+        <v>2064</v>
+      </c>
+      <c r="Q5">
+        <v>296</v>
+      </c>
+      <c r="R5">
+        <v>745</v>
+      </c>
+      <c r="S5">
+        <v>671</v>
+      </c>
+      <c r="T5">
+        <v>899</v>
+      </c>
+      <c r="U5">
+        <v>408</v>
+      </c>
+      <c r="V5">
+        <v>1319</v>
+      </c>
+      <c r="W5">
+        <v>536</v>
+      </c>
+      <c r="X5">
+        <v>197</v>
+      </c>
+      <c r="Y5">
+        <v>98</v>
+      </c>
+      <c r="Z5">
+        <v>484</v>
+      </c>
+      <c r="AA5">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>-4.32</v>
+      </c>
+      <c r="F6">
+        <v>-2.97</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>2457</v>
+      </c>
+      <c r="N6">
+        <v>2426</v>
+      </c>
+      <c r="O6">
+        <v>825</v>
+      </c>
+      <c r="P6">
+        <v>1938</v>
+      </c>
+      <c r="Q6">
+        <v>242</v>
+      </c>
+      <c r="R6">
+        <v>615</v>
+      </c>
+      <c r="S6">
+        <v>565</v>
+      </c>
+      <c r="T6">
+        <v>819</v>
+      </c>
+      <c r="U6">
+        <v>377</v>
+      </c>
+      <c r="V6">
+        <v>1204</v>
+      </c>
+      <c r="W6">
+        <v>433</v>
+      </c>
+      <c r="X6">
+        <v>212</v>
+      </c>
+      <c r="Y6">
+        <v>89</v>
+      </c>
+      <c r="Z6">
+        <v>428</v>
+      </c>
+      <c r="AA6">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>13.07</v>
+      </c>
+      <c r="F7">
+        <v>-4.42</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>2790</v>
+      </c>
+      <c r="N7">
+        <v>2178</v>
+      </c>
+      <c r="O7">
+        <v>944</v>
+      </c>
+      <c r="P7">
+        <v>2045</v>
+      </c>
+      <c r="Q7">
+        <v>327</v>
+      </c>
+      <c r="R7">
+        <v>864</v>
+      </c>
+      <c r="S7">
+        <v>575</v>
+      </c>
+      <c r="T7">
+        <v>781</v>
+      </c>
+      <c r="U7">
+        <v>451</v>
+      </c>
+      <c r="V7">
+        <v>1258</v>
+      </c>
+      <c r="W7">
+        <v>575</v>
+      </c>
+      <c r="X7">
+        <v>338</v>
+      </c>
+      <c r="Y7">
+        <v>118</v>
+      </c>
+      <c r="Z7">
+        <v>480</v>
+      </c>
+      <c r="AA7">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>-2.48</v>
+      </c>
+      <c r="F8">
+        <v>-3.85</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>2270</v>
+      </c>
+      <c r="N8">
+        <v>2222</v>
+      </c>
+      <c r="O8">
+        <v>749</v>
+      </c>
+      <c r="P8">
+        <v>1865</v>
+      </c>
+      <c r="Q8">
+        <v>265</v>
+      </c>
+      <c r="R8">
+        <v>747</v>
+      </c>
+      <c r="S8">
+        <v>507</v>
+      </c>
+      <c r="T8">
+        <v>695</v>
+      </c>
+      <c r="U8">
+        <v>414</v>
+      </c>
+      <c r="V8">
+        <v>1249</v>
+      </c>
+      <c r="W8">
+        <v>345</v>
+      </c>
+      <c r="X8">
+        <v>189</v>
+      </c>
+      <c r="Y8">
+        <v>129</v>
+      </c>
+      <c r="Z8">
+        <v>418</v>
+      </c>
+      <c r="AA8">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="F9">
+        <v>5.76</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3012</v>
+      </c>
+      <c r="N9">
+        <v>2512</v>
+      </c>
+      <c r="O9">
+        <v>1019</v>
+      </c>
+      <c r="P9">
+        <v>2267</v>
+      </c>
+      <c r="Q9">
+        <v>312</v>
+      </c>
+      <c r="R9">
+        <v>865</v>
+      </c>
+      <c r="S9">
+        <v>662</v>
+      </c>
+      <c r="T9">
+        <v>865</v>
+      </c>
+      <c r="U9">
+        <v>420</v>
+      </c>
+      <c r="V9">
+        <v>1425</v>
+      </c>
+      <c r="W9">
+        <v>538</v>
+      </c>
+      <c r="X9">
+        <v>298</v>
+      </c>
+      <c r="Y9">
+        <v>150</v>
+      </c>
+      <c r="Z9">
+        <v>404</v>
+      </c>
+      <c r="AA9">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>2.39</v>
+      </c>
+      <c r="F10">
+        <v>-3.87</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>2387</v>
+      </c>
+      <c r="N10">
+        <v>2174</v>
+      </c>
+      <c r="O10">
+        <v>827</v>
+      </c>
+      <c r="P10">
+        <v>1855</v>
+      </c>
+      <c r="Q10">
+        <v>234</v>
+      </c>
+      <c r="R10">
+        <v>585</v>
+      </c>
+      <c r="S10">
+        <v>499</v>
+      </c>
+      <c r="T10">
+        <v>633</v>
+      </c>
+      <c r="U10">
+        <v>270</v>
+      </c>
+      <c r="V10">
+        <v>1149</v>
+      </c>
+      <c r="W10">
+        <v>491</v>
+      </c>
+      <c r="X10">
+        <v>160</v>
+      </c>
+      <c r="Y10">
+        <v>106</v>
+      </c>
+      <c r="Z10">
+        <v>380</v>
+      </c>
+      <c r="AA10">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>11.53</v>
+      </c>
+      <c r="F11">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>2707</v>
+      </c>
+      <c r="N11">
+        <v>2437</v>
+      </c>
+      <c r="O11">
+        <v>919</v>
+      </c>
+      <c r="P11">
+        <v>2122</v>
+      </c>
+      <c r="Q11">
+        <v>289</v>
+      </c>
+      <c r="R11">
+        <v>822</v>
+      </c>
+      <c r="S11">
+        <v>580</v>
+      </c>
+      <c r="T11">
+        <v>799</v>
+      </c>
+      <c r="U11">
+        <v>431</v>
+      </c>
+      <c r="V11">
+        <v>1337</v>
+      </c>
+      <c r="W11">
+        <v>452</v>
+      </c>
+      <c r="X11">
+        <v>226</v>
+      </c>
+      <c r="Y11">
+        <v>61</v>
+      </c>
+      <c r="Z11">
+        <v>416</v>
+      </c>
+      <c r="AA11">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>1.22</v>
+      </c>
+      <c r="F12">
+        <v>0.12</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>2170</v>
+      </c>
+      <c r="N12">
+        <v>2105</v>
+      </c>
+      <c r="O12">
+        <v>742</v>
+      </c>
+      <c r="P12">
+        <v>1636</v>
+      </c>
+      <c r="Q12">
+        <v>227</v>
+      </c>
+      <c r="R12">
+        <v>611</v>
+      </c>
+      <c r="S12">
+        <v>459</v>
+      </c>
+      <c r="T12">
+        <v>610</v>
+      </c>
+      <c r="U12">
+        <v>277</v>
+      </c>
+      <c r="V12">
+        <v>1038</v>
+      </c>
+      <c r="W12">
+        <v>457</v>
+      </c>
+      <c r="X12">
+        <v>233</v>
+      </c>
+      <c r="Y12">
+        <v>133</v>
+      </c>
+      <c r="Z12">
+        <v>456</v>
+      </c>
+      <c r="AA12">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>15.41</v>
+      </c>
+      <c r="F13">
+        <v>6.1</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>2412</v>
+      </c>
+      <c r="N13">
+        <v>2086</v>
+      </c>
+      <c r="O13">
+        <v>848</v>
+      </c>
+      <c r="P13">
+        <v>1939</v>
+      </c>
+      <c r="Q13">
+        <v>220</v>
+      </c>
+      <c r="R13">
+        <v>651</v>
+      </c>
+      <c r="S13">
+        <v>496</v>
+      </c>
+      <c r="T13">
+        <v>742</v>
+      </c>
+      <c r="U13">
+        <v>454</v>
+      </c>
+      <c r="V13">
+        <v>1237</v>
+      </c>
+      <c r="W13">
+        <v>497</v>
+      </c>
+      <c r="X13">
+        <v>258</v>
+      </c>
+      <c r="Y13">
+        <v>129</v>
+      </c>
+      <c r="Z13">
+        <v>401</v>
+      </c>
+      <c r="AA13">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>13.76</v>
+      </c>
+      <c r="F14">
+        <v>6.58</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>2330</v>
+      </c>
+      <c r="N14">
+        <v>2086</v>
+      </c>
+      <c r="O14">
+        <v>810</v>
+      </c>
+      <c r="P14">
+        <v>1827</v>
+      </c>
+      <c r="Q14">
+        <v>217</v>
+      </c>
+      <c r="R14">
+        <v>630</v>
+      </c>
+      <c r="S14">
+        <v>493</v>
+      </c>
+      <c r="T14">
+        <v>703</v>
+      </c>
+      <c r="U14">
+        <v>384</v>
+      </c>
+      <c r="V14">
+        <v>1177</v>
+      </c>
+      <c r="W14">
+        <v>445</v>
+      </c>
+      <c r="X14">
+        <v>272</v>
+      </c>
+      <c r="Y14">
+        <v>161</v>
+      </c>
+      <c r="Z14">
+        <v>449</v>
+      </c>
+      <c r="AA14">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>17.95</v>
+      </c>
+      <c r="F15">
+        <v>10.44</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>2967</v>
+      </c>
+      <c r="N15">
+        <v>2659</v>
+      </c>
+      <c r="O15">
+        <v>1053</v>
+      </c>
+      <c r="P15">
+        <v>2429</v>
+      </c>
+      <c r="Q15">
+        <v>234</v>
+      </c>
+      <c r="R15">
+        <v>711</v>
+      </c>
+      <c r="S15">
+        <v>627</v>
+      </c>
+      <c r="T15">
+        <v>822</v>
+      </c>
+      <c r="U15">
+        <v>570</v>
+      </c>
+      <c r="V15">
+        <v>1626</v>
+      </c>
+      <c r="W15">
+        <v>534</v>
+      </c>
+      <c r="X15">
+        <v>259</v>
+      </c>
+      <c r="Y15">
+        <v>228</v>
+      </c>
+      <c r="Z15">
+        <v>466</v>
+      </c>
+      <c r="AA15">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>24.51</v>
+      </c>
+      <c r="F16">
+        <v>8.32</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>2993</v>
+      </c>
+      <c r="N16">
+        <v>2394</v>
+      </c>
+      <c r="O16">
+        <v>1040</v>
+      </c>
+      <c r="P16">
+        <v>2206</v>
+      </c>
+      <c r="Q16">
+        <v>291</v>
+      </c>
+      <c r="R16">
+        <v>778</v>
+      </c>
+      <c r="S16">
+        <v>622</v>
+      </c>
+      <c r="T16">
+        <v>826</v>
+      </c>
+      <c r="U16">
+        <v>446</v>
+      </c>
+      <c r="V16">
+        <v>1399</v>
+      </c>
+      <c r="W16">
+        <v>529</v>
+      </c>
+      <c r="X16">
+        <v>269</v>
+      </c>
+      <c r="Y16">
+        <v>162</v>
+      </c>
+      <c r="Z16">
+        <v>447</v>
+      </c>
+      <c r="AA16">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>13.48</v>
+      </c>
+      <c r="F17">
+        <v>6.45</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>2348</v>
+      </c>
+      <c r="N17">
+        <v>2109</v>
+      </c>
+      <c r="O17">
+        <v>827</v>
+      </c>
+      <c r="P17">
+        <v>1903</v>
+      </c>
+      <c r="Q17">
+        <v>212</v>
+      </c>
+      <c r="R17">
+        <v>634</v>
+      </c>
+      <c r="S17">
+        <v>482</v>
+      </c>
+      <c r="T17">
+        <v>725</v>
+      </c>
+      <c r="U17">
+        <v>422</v>
+      </c>
+      <c r="V17">
+        <v>1332</v>
+      </c>
+      <c r="W17">
+        <v>423</v>
+      </c>
+      <c r="X17">
+        <v>288</v>
+      </c>
+      <c r="Y17">
+        <v>203</v>
+      </c>
+      <c r="Z17">
+        <v>541</v>
+      </c>
+      <c r="AA17">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>16.27</v>
+      </c>
+      <c r="F18">
+        <v>7.57</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>2667</v>
+      </c>
+      <c r="N18">
+        <v>2345</v>
+      </c>
+      <c r="O18">
+        <v>968</v>
+      </c>
+      <c r="P18">
+        <v>2083</v>
+      </c>
+      <c r="Q18">
+        <v>233</v>
+      </c>
+      <c r="R18">
+        <v>661</v>
+      </c>
+      <c r="S18">
+        <v>498</v>
+      </c>
+      <c r="T18">
+        <v>744</v>
+      </c>
+      <c r="U18">
+        <v>467</v>
+      </c>
+      <c r="V18">
+        <v>1384</v>
+      </c>
+      <c r="W18">
+        <v>521</v>
+      </c>
+      <c r="X18">
+        <v>221</v>
+      </c>
+      <c r="Y18">
+        <v>131</v>
+      </c>
+      <c r="Z18">
+        <v>452</v>
+      </c>
+      <c r="AA18">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>11.66</v>
+      </c>
+      <c r="F19">
+        <v>1.37</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>2474</v>
+      </c>
+      <c r="N19">
+        <v>2124</v>
+      </c>
+      <c r="O19">
+        <v>876</v>
+      </c>
+      <c r="P19">
+        <v>1861</v>
+      </c>
+      <c r="Q19">
+        <v>227</v>
+      </c>
+      <c r="R19">
+        <v>574</v>
+      </c>
+      <c r="S19">
+        <v>495</v>
+      </c>
+      <c r="T19">
+        <v>718</v>
+      </c>
+      <c r="U19">
+        <v>364</v>
+      </c>
+      <c r="V19">
+        <v>1188</v>
+      </c>
+      <c r="W19">
+        <v>483</v>
+      </c>
+      <c r="X19">
+        <v>224</v>
+      </c>
+      <c r="Y19">
+        <v>110</v>
+      </c>
+      <c r="Z19">
+        <v>376</v>
+      </c>
+      <c r="AA19">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>14.61</v>
+      </c>
+      <c r="F20">
+        <v>10.39</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>2258</v>
+      </c>
+      <c r="N20">
+        <v>2123</v>
+      </c>
+      <c r="O20">
+        <v>809</v>
+      </c>
+      <c r="P20">
+        <v>1703</v>
+      </c>
+      <c r="Q20">
+        <v>223</v>
+      </c>
+      <c r="R20">
+        <v>631</v>
+      </c>
+      <c r="S20">
+        <v>417</v>
+      </c>
+      <c r="T20">
+        <v>568</v>
+      </c>
+      <c r="U20">
+        <v>324</v>
+      </c>
+      <c r="V20">
+        <v>1081</v>
+      </c>
+      <c r="W20">
+        <v>481</v>
+      </c>
+      <c r="X20">
+        <v>193</v>
+      </c>
+      <c r="Y20">
+        <v>139</v>
+      </c>
+      <c r="Z20">
+        <v>433</v>
+      </c>
+      <c r="AA20">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>10.43</v>
+      </c>
+      <c r="F21">
+        <v>6.13</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>2267</v>
+      </c>
+      <c r="N21">
+        <v>2125</v>
+      </c>
+      <c r="O21">
+        <v>823</v>
+      </c>
+      <c r="P21">
+        <v>1822</v>
+      </c>
+      <c r="Q21">
+        <v>156</v>
+      </c>
+      <c r="R21">
+        <v>456</v>
+      </c>
+      <c r="S21">
+        <v>465</v>
+      </c>
+      <c r="T21">
+        <v>667</v>
+      </c>
+      <c r="U21">
+        <v>407</v>
+      </c>
+      <c r="V21">
+        <v>1243</v>
+      </c>
+      <c r="W21">
+        <v>495</v>
+      </c>
+      <c r="X21">
+        <v>211</v>
+      </c>
+      <c r="Y21">
+        <v>162</v>
+      </c>
+      <c r="Z21">
+        <v>444</v>
+      </c>
+      <c r="AA21">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>13.86</v>
+      </c>
+      <c r="F22">
+        <v>4.01</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>2684</v>
+      </c>
+      <c r="N22">
+        <v>2307</v>
+      </c>
+      <c r="O22">
+        <v>932</v>
+      </c>
+      <c r="P22">
+        <v>1947</v>
+      </c>
+      <c r="Q22">
+        <v>203</v>
+      </c>
+      <c r="R22">
+        <v>548</v>
+      </c>
+      <c r="S22">
+        <v>617</v>
+      </c>
+      <c r="T22">
+        <v>810</v>
+      </c>
+      <c r="U22">
+        <v>398</v>
+      </c>
+      <c r="V22">
+        <v>1314</v>
+      </c>
+      <c r="W22">
+        <v>542</v>
+      </c>
+      <c r="X22">
+        <v>254</v>
+      </c>
+      <c r="Y22">
+        <v>132</v>
+      </c>
+      <c r="Z22">
+        <v>474</v>
+      </c>
+      <c r="AA22">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>-5.2</v>
+      </c>
+      <c r="F23">
+        <v>-8.77</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>8</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>2197</v>
+      </c>
+      <c r="N23">
+        <v>2070</v>
+      </c>
+      <c r="O23">
+        <v>746</v>
+      </c>
+      <c r="P23">
+        <v>1843</v>
+      </c>
+      <c r="Q23">
+        <v>213</v>
+      </c>
+      <c r="R23">
+        <v>658</v>
+      </c>
+      <c r="S23">
+        <v>492</v>
+      </c>
+      <c r="T23">
+        <v>759</v>
+      </c>
+      <c r="U23">
+        <v>367</v>
+      </c>
+      <c r="V23">
+        <v>1170</v>
+      </c>
+      <c r="W23">
+        <v>387</v>
+      </c>
+      <c r="X23">
+        <v>241</v>
+      </c>
+      <c r="Y23">
+        <v>185</v>
+      </c>
+      <c r="Z23">
+        <v>412</v>
+      </c>
+      <c r="AA23">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>16.72</v>
+      </c>
+      <c r="F24">
+        <v>11.11</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>14</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <v>2413</v>
+      </c>
+      <c r="N24">
+        <v>2222</v>
+      </c>
+      <c r="O24">
+        <v>894</v>
+      </c>
+      <c r="P24">
+        <v>1910</v>
+      </c>
+      <c r="Q24">
+        <v>232</v>
+      </c>
+      <c r="R24">
+        <v>600</v>
+      </c>
+      <c r="S24">
+        <v>393</v>
+      </c>
+      <c r="T24">
+        <v>539</v>
+      </c>
+      <c r="U24">
+        <v>342</v>
+      </c>
+      <c r="V24">
+        <v>1178</v>
+      </c>
+      <c r="W24">
+        <v>568</v>
+      </c>
+      <c r="X24">
+        <v>188</v>
+      </c>
+      <c r="Y24">
+        <v>152</v>
+      </c>
+      <c r="Z24">
+        <v>434</v>
+      </c>
+      <c r="AA24">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>3.41</v>
+      </c>
+      <c r="F25">
+        <v>2.9</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25">
+        <v>2253</v>
+      </c>
+      <c r="N25">
+        <v>2192</v>
+      </c>
+      <c r="O25">
+        <v>769</v>
+      </c>
+      <c r="P25">
+        <v>1793</v>
+      </c>
+      <c r="Q25">
+        <v>235</v>
+      </c>
+      <c r="R25">
+        <v>649</v>
+      </c>
+      <c r="S25">
+        <v>480</v>
+      </c>
+      <c r="T25">
+        <v>676</v>
+      </c>
+      <c r="U25">
+        <v>352</v>
+      </c>
+      <c r="V25">
+        <v>1172</v>
+      </c>
+      <c r="W25">
+        <v>431</v>
+      </c>
+      <c r="X25">
+        <v>212</v>
+      </c>
+      <c r="Y25">
+        <v>145</v>
+      </c>
+      <c r="Z25">
+        <v>477</v>
+      </c>
+      <c r="AA25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>14.59</v>
+      </c>
+      <c r="F26">
+        <v>8.41</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>16</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>2477</v>
+      </c>
+      <c r="N26">
+        <v>2249</v>
+      </c>
+      <c r="O26">
+        <v>849</v>
+      </c>
+      <c r="P26">
+        <v>1939</v>
+      </c>
+      <c r="Q26">
+        <v>237</v>
+      </c>
+      <c r="R26">
+        <v>631</v>
+      </c>
+      <c r="S26">
+        <v>542</v>
+      </c>
+      <c r="T26">
+        <v>828</v>
+      </c>
+      <c r="U26">
+        <v>490</v>
+      </c>
+      <c r="V26">
+        <v>1280</v>
+      </c>
+      <c r="W26">
+        <v>474</v>
+      </c>
+      <c r="X26">
+        <v>208</v>
+      </c>
+      <c r="Y26">
+        <v>154</v>
+      </c>
+      <c r="Z26">
+        <v>498</v>
+      </c>
+      <c r="AA26">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>24.1</v>
+      </c>
+      <c r="F27">
+        <v>7.62</v>
+      </c>
+      <c r="G27">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>16</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3084</v>
+      </c>
+      <c r="N27">
+        <v>2458</v>
+      </c>
+      <c r="O27">
+        <v>1114</v>
+      </c>
+      <c r="P27">
+        <v>2193</v>
+      </c>
+      <c r="Q27">
+        <v>271</v>
+      </c>
+      <c r="R27">
+        <v>710</v>
+      </c>
+      <c r="S27">
+        <v>585</v>
+      </c>
+      <c r="T27">
+        <v>862</v>
+      </c>
+      <c r="U27">
+        <v>449</v>
+      </c>
+      <c r="V27">
+        <v>1475</v>
+      </c>
+      <c r="W27">
+        <v>674</v>
+      </c>
+      <c r="X27">
+        <v>295</v>
+      </c>
+      <c r="Y27">
+        <v>153</v>
+      </c>
+      <c r="Z27">
+        <v>507</v>
+      </c>
+      <c r="AA27">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>20.3</v>
+      </c>
+      <c r="F28">
+        <v>8.91</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>15</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>2845</v>
+      </c>
+      <c r="N28">
+        <v>2412</v>
+      </c>
+      <c r="O28">
+        <v>1002</v>
+      </c>
+      <c r="P28">
+        <v>2183</v>
+      </c>
+      <c r="Q28">
+        <v>281</v>
+      </c>
+      <c r="R28">
+        <v>707</v>
+      </c>
+      <c r="S28">
+        <v>560</v>
+      </c>
+      <c r="T28">
+        <v>789</v>
+      </c>
+      <c r="U28">
+        <v>445</v>
+      </c>
+      <c r="V28">
+        <v>1420</v>
+      </c>
+      <c r="W28">
+        <v>482</v>
+      </c>
+      <c r="X28">
+        <v>211</v>
+      </c>
+      <c r="Y28">
+        <v>239</v>
+      </c>
+      <c r="Z28">
+        <v>406</v>
+      </c>
+      <c r="AA28">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>150</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>2.23</v>
+      </c>
+      <c r="F29">
+        <v>-5.77</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>13</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>2730</v>
+      </c>
+      <c r="N29">
+        <v>2466</v>
+      </c>
+      <c r="O29">
+        <v>928</v>
+      </c>
+      <c r="P29">
+        <v>2009</v>
+      </c>
+      <c r="Q29">
+        <v>229</v>
+      </c>
+      <c r="R29">
+        <v>635</v>
+      </c>
+      <c r="S29">
+        <v>645</v>
+      </c>
+      <c r="T29">
+        <v>999</v>
+      </c>
+      <c r="U29">
+        <v>479</v>
+      </c>
+      <c r="V29">
+        <v>1378</v>
+      </c>
+      <c r="W29">
+        <v>503</v>
+      </c>
+      <c r="X29">
+        <v>246</v>
+      </c>
+      <c r="Y29">
+        <v>111</v>
+      </c>
+      <c r="Z29">
+        <v>505</v>
+      </c>
+      <c r="AA29">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F30">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>19</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
+      <c r="M30">
+        <v>2623</v>
+      </c>
+      <c r="N30">
+        <v>2259</v>
+      </c>
+      <c r="O30">
+        <v>949</v>
+      </c>
+      <c r="P30">
+        <v>2097</v>
+      </c>
+      <c r="Q30">
+        <v>309</v>
+      </c>
+      <c r="R30">
+        <v>854</v>
+      </c>
+      <c r="S30">
+        <v>416</v>
+      </c>
+      <c r="T30">
+        <v>627</v>
+      </c>
+      <c r="U30">
+        <v>434</v>
+      </c>
+      <c r="V30">
+        <v>1272</v>
+      </c>
+      <c r="W30">
+        <v>608</v>
+      </c>
+      <c r="X30">
+        <v>327</v>
+      </c>
+      <c r="Y30">
+        <v>175</v>
+      </c>
+      <c r="Z30">
+        <v>459</v>
+      </c>
+      <c r="AA30">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>163</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>14.89</v>
+      </c>
+      <c r="F31">
+        <v>8.51</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31">
+        <v>2782</v>
+      </c>
+      <c r="N31">
+        <v>2546</v>
+      </c>
+      <c r="O31">
+        <v>973</v>
+      </c>
+      <c r="P31">
+        <v>2094</v>
+      </c>
+      <c r="Q31">
+        <v>191</v>
+      </c>
+      <c r="R31">
+        <v>547</v>
+      </c>
+      <c r="S31">
+        <v>645</v>
+      </c>
+      <c r="T31">
+        <v>927</v>
+      </c>
+      <c r="U31">
+        <v>457</v>
+      </c>
+      <c r="V31">
+        <v>1329</v>
+      </c>
+      <c r="W31">
+        <v>574</v>
+      </c>
+      <c r="X31">
+        <v>265</v>
+      </c>
+      <c r="Y31">
+        <v>134</v>
+      </c>
+      <c r="Z31">
+        <v>455</v>
+      </c>
+      <c r="AA31">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>170</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>6.91</v>
+      </c>
+      <c r="F32">
+        <v>3.14</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>17</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>6</v>
+      </c>
+      <c r="M32">
+        <v>2524</v>
+      </c>
+      <c r="N32">
+        <v>2392</v>
+      </c>
+      <c r="O32">
+        <v>891</v>
+      </c>
+      <c r="P32">
+        <v>1975</v>
+      </c>
+      <c r="Q32">
+        <v>210</v>
+      </c>
+      <c r="R32">
+        <v>639</v>
+      </c>
+      <c r="S32">
+        <v>532</v>
+      </c>
+      <c r="T32">
+        <v>782</v>
+      </c>
+      <c r="U32">
+        <v>421</v>
+      </c>
+      <c r="V32">
+        <v>1246</v>
+      </c>
+      <c r="W32">
+        <v>512</v>
+      </c>
+      <c r="X32">
+        <v>297</v>
+      </c>
+      <c r="Y32">
+        <v>183</v>
+      </c>
+      <c r="Z32">
+        <v>535</v>
+      </c>
+      <c r="AA32">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>174</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>13.7</v>
+      </c>
+      <c r="F33">
+        <v>11.67</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>12</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>8</v>
+      </c>
+      <c r="M33">
+        <v>2338</v>
+      </c>
+      <c r="N33">
+        <v>2263</v>
+      </c>
+      <c r="O33">
+        <v>817</v>
+      </c>
+      <c r="P33">
+        <v>1894</v>
+      </c>
+      <c r="Q33">
+        <v>220</v>
+      </c>
+      <c r="R33">
+        <v>620</v>
+      </c>
+      <c r="S33">
+        <v>484</v>
+      </c>
+      <c r="T33">
+        <v>691</v>
+      </c>
+      <c r="U33">
+        <v>407</v>
+      </c>
+      <c r="V33">
+        <v>1256</v>
+      </c>
+      <c r="W33">
+        <v>509</v>
+      </c>
+      <c r="X33">
+        <v>219</v>
+      </c>
+      <c r="Y33">
+        <v>167</v>
+      </c>
+      <c r="Z33">
+        <v>454</v>
+      </c>
+      <c r="AA33">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>175</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>14.21</v>
+      </c>
+      <c r="F34">
+        <v>10.68</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <v>9</v>
+      </c>
+      <c r="I34">
+        <v>14</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <v>2328</v>
+      </c>
+      <c r="N34">
+        <v>2187</v>
+      </c>
+      <c r="O34">
+        <v>847</v>
+      </c>
+      <c r="P34">
+        <v>1889</v>
+      </c>
+      <c r="Q34">
+        <v>283</v>
+      </c>
+      <c r="R34">
+        <v>804</v>
+      </c>
+      <c r="S34">
+        <v>351</v>
+      </c>
+      <c r="T34">
+        <v>502</v>
+      </c>
+      <c r="U34">
+        <v>289</v>
+      </c>
+      <c r="V34">
+        <v>1115</v>
+      </c>
+      <c r="W34">
+        <v>480</v>
+      </c>
+      <c r="X34">
+        <v>168</v>
+      </c>
+      <c r="Y34">
+        <v>69</v>
+      </c>
+      <c r="Z34">
+        <v>351</v>
+      </c>
+      <c r="AA34">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>184</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>14.77</v>
+      </c>
+      <c r="F35">
+        <v>6.5</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
+      </c>
+      <c r="M35">
+        <v>2748</v>
+      </c>
+      <c r="N35">
+        <v>2435</v>
+      </c>
+      <c r="O35">
+        <v>983</v>
+      </c>
+      <c r="P35">
+        <v>2145</v>
+      </c>
+      <c r="Q35">
+        <v>245</v>
+      </c>
+      <c r="R35">
+        <v>669</v>
+      </c>
+      <c r="S35">
+        <v>537</v>
+      </c>
+      <c r="T35">
+        <v>727</v>
+      </c>
+      <c r="U35">
+        <v>425</v>
+      </c>
+      <c r="V35">
+        <v>1197</v>
+      </c>
+      <c r="W35">
+        <v>558</v>
+      </c>
+      <c r="X35">
+        <v>329</v>
+      </c>
+      <c r="Y35">
+        <v>171</v>
+      </c>
+      <c r="Z35">
+        <v>431</v>
+      </c>
+      <c r="AA35">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>188</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>2.81</v>
+      </c>
+      <c r="F36">
+        <v>-3.13</v>
+      </c>
+      <c r="G36">
+        <v>13</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>14</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>8</v>
+      </c>
+      <c r="L36">
+        <v>8</v>
+      </c>
+      <c r="M36">
+        <v>2412</v>
+      </c>
+      <c r="N36">
+        <v>2162</v>
+      </c>
+      <c r="O36">
+        <v>851</v>
+      </c>
+      <c r="P36">
+        <v>1874</v>
+      </c>
+      <c r="Q36">
+        <v>204</v>
+      </c>
+      <c r="R36">
+        <v>601</v>
+      </c>
+      <c r="S36">
+        <v>506</v>
+      </c>
+      <c r="T36">
+        <v>751</v>
+      </c>
+      <c r="U36">
+        <v>484</v>
+      </c>
+      <c r="V36">
+        <v>1311</v>
+      </c>
+      <c r="W36">
+        <v>424</v>
+      </c>
+      <c r="X36">
+        <v>300</v>
+      </c>
+      <c r="Y36">
+        <v>110</v>
+      </c>
+      <c r="Z36">
+        <v>525</v>
+      </c>
+      <c r="AA36">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>194</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>14.67</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>11</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>8</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>2363</v>
+      </c>
+      <c r="N37">
+        <v>2077</v>
+      </c>
+      <c r="O37">
+        <v>842</v>
+      </c>
+      <c r="P37">
+        <v>1836</v>
+      </c>
+      <c r="Q37">
+        <v>184</v>
+      </c>
+      <c r="R37">
+        <v>558</v>
+      </c>
+      <c r="S37">
+        <v>495</v>
+      </c>
+      <c r="T37">
+        <v>718</v>
+      </c>
+      <c r="U37">
+        <v>368</v>
+      </c>
+      <c r="V37">
+        <v>1151</v>
+      </c>
+      <c r="W37">
+        <v>509</v>
+      </c>
+      <c r="X37">
+        <v>268</v>
+      </c>
+      <c r="Y37">
+        <v>124</v>
+      </c>
+      <c r="Z37">
+        <v>414</v>
+      </c>
+      <c r="AA37">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>-0.69</v>
+      </c>
+      <c r="F38">
+        <v>-2.89</v>
+      </c>
+      <c r="G38">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+      <c r="M38">
+        <v>2506</v>
+      </c>
+      <c r="N38">
+        <v>2333</v>
+      </c>
+      <c r="O38">
+        <v>881</v>
+      </c>
+      <c r="P38">
+        <v>1950</v>
+      </c>
+      <c r="Q38">
+        <v>168</v>
+      </c>
+      <c r="R38">
+        <v>515</v>
+      </c>
+      <c r="S38">
+        <v>576</v>
+      </c>
+      <c r="T38">
+        <v>810</v>
+      </c>
+      <c r="U38">
+        <v>400</v>
+      </c>
+      <c r="V38">
+        <v>1213</v>
+      </c>
+      <c r="W38">
+        <v>492</v>
+      </c>
+      <c r="X38">
+        <v>310</v>
+      </c>
+      <c r="Y38">
+        <v>152</v>
+      </c>
+      <c r="Z38">
+        <v>506</v>
+      </c>
+      <c r="AA38">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>209</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>18.87</v>
+      </c>
+      <c r="F39">
+        <v>10.15</v>
+      </c>
+      <c r="G39">
+        <v>14</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>15</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>7</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>2868</v>
+      </c>
+      <c r="N39">
+        <v>2545</v>
+      </c>
+      <c r="O39">
+        <v>1044</v>
+      </c>
+      <c r="P39">
+        <v>2317</v>
+      </c>
+      <c r="Q39">
+        <v>190</v>
+      </c>
+      <c r="R39">
+        <v>579</v>
+      </c>
+      <c r="S39">
+        <v>590</v>
+      </c>
+      <c r="T39">
+        <v>878</v>
+      </c>
+      <c r="U39">
+        <v>525</v>
+      </c>
+      <c r="V39">
+        <v>1578</v>
+      </c>
+      <c r="W39">
+        <v>573</v>
+      </c>
+      <c r="X39">
+        <v>232</v>
+      </c>
+      <c r="Y39">
+        <v>204</v>
+      </c>
+      <c r="Z39">
+        <v>493</v>
+      </c>
+      <c r="AA39">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>216</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>1.39</v>
+      </c>
+      <c r="F40">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="G40">
+        <v>13</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>14</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>6</v>
+      </c>
+      <c r="L40">
+        <v>9</v>
+      </c>
+      <c r="M40">
+        <v>2287</v>
+      </c>
+      <c r="N40">
+        <v>2105</v>
+      </c>
+      <c r="O40">
+        <v>731</v>
+      </c>
+      <c r="P40">
+        <v>1708</v>
+      </c>
+      <c r="Q40">
+        <v>254</v>
+      </c>
+      <c r="R40">
+        <v>657</v>
+      </c>
+      <c r="S40">
+        <v>571</v>
+      </c>
+      <c r="T40">
+        <v>742</v>
+      </c>
+      <c r="U40">
+        <v>376</v>
+      </c>
+      <c r="V40">
+        <v>1150</v>
+      </c>
+      <c r="W40">
+        <v>371</v>
+      </c>
+      <c r="X40">
+        <v>191</v>
+      </c>
+      <c r="Y40">
+        <v>62</v>
+      </c>
+      <c r="Z40">
+        <v>454</v>
+      </c>
+      <c r="AA40">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>221</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="F41">
+        <v>8.43</v>
+      </c>
+      <c r="G41">
+        <v>14</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>17</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>2558</v>
+      </c>
+      <c r="N41">
+        <v>2227</v>
+      </c>
+      <c r="O41">
+        <v>843</v>
+      </c>
+      <c r="P41">
+        <v>1832</v>
+      </c>
+      <c r="Q41">
+        <v>273</v>
+      </c>
+      <c r="R41">
+        <v>708</v>
+      </c>
+      <c r="S41">
+        <v>599</v>
+      </c>
+      <c r="T41">
+        <v>827</v>
+      </c>
+      <c r="U41">
+        <v>371</v>
+      </c>
+      <c r="V41">
+        <v>1261</v>
+      </c>
+      <c r="W41">
+        <v>563</v>
+      </c>
+      <c r="X41">
+        <v>156</v>
+      </c>
+      <c r="Y41">
+        <v>128</v>
+      </c>
+      <c r="Z41">
+        <v>364</v>
+      </c>
+      <c r="AA41">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>222</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42">
+        <v>25</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="F42">
+        <v>0.1</v>
+      </c>
+      <c r="G42">
+        <v>17</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <v>7</v>
+      </c>
+      <c r="M42">
+        <v>2992</v>
+      </c>
+      <c r="N42">
+        <v>2690</v>
+      </c>
+      <c r="O42">
+        <v>1052</v>
+      </c>
+      <c r="P42">
+        <v>2137</v>
+      </c>
+      <c r="Q42">
+        <v>287</v>
+      </c>
+      <c r="R42">
+        <v>767</v>
+      </c>
+      <c r="S42">
+        <v>601</v>
+      </c>
+      <c r="T42">
+        <v>834</v>
+      </c>
+      <c r="U42">
+        <v>451</v>
+      </c>
+      <c r="V42">
+        <v>1366</v>
+      </c>
+      <c r="W42">
+        <v>568</v>
+      </c>
+      <c r="X42">
+        <v>216</v>
+      </c>
+      <c r="Y42">
+        <v>192</v>
+      </c>
+      <c r="Z42">
+        <v>473</v>
+      </c>
+      <c r="AA42">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>223</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>34</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>25.84</v>
+      </c>
+      <c r="F43">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="G43">
+        <v>16</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>20</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>9</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>2854</v>
+      </c>
+      <c r="N43">
+        <v>2208</v>
+      </c>
+      <c r="O43">
+        <v>1017</v>
+      </c>
+      <c r="P43">
+        <v>2059</v>
+      </c>
+      <c r="Q43">
+        <v>285</v>
+      </c>
+      <c r="R43">
+        <v>674</v>
+      </c>
+      <c r="S43">
+        <v>535</v>
+      </c>
+      <c r="T43">
+        <v>763</v>
+      </c>
+      <c r="U43">
+        <v>419</v>
+      </c>
+      <c r="V43">
+        <v>1277</v>
+      </c>
+      <c r="W43">
+        <v>587</v>
+      </c>
+      <c r="X43">
+        <v>263</v>
+      </c>
+      <c r="Y43">
+        <v>118</v>
+      </c>
+      <c r="Z43">
+        <v>375</v>
+      </c>
+      <c r="AA43">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>227</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="F44">
+        <v>1.76</v>
+      </c>
+      <c r="G44">
+        <v>14</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>14</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>7</v>
+      </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
+      <c r="M44">
+        <v>2231</v>
+      </c>
+      <c r="N44">
+        <v>1984</v>
+      </c>
+      <c r="O44">
+        <v>803</v>
+      </c>
+      <c r="P44">
+        <v>1828</v>
+      </c>
+      <c r="Q44">
+        <v>166</v>
+      </c>
+      <c r="R44">
+        <v>505</v>
+      </c>
+      <c r="S44">
+        <v>459</v>
+      </c>
+      <c r="T44">
+        <v>687</v>
+      </c>
+      <c r="U44">
+        <v>524</v>
+      </c>
+      <c r="V44">
+        <v>1355</v>
+      </c>
+      <c r="W44">
+        <v>485</v>
+      </c>
+      <c r="X44">
+        <v>234</v>
+      </c>
+      <c r="Y44">
+        <v>146</v>
+      </c>
+      <c r="Z44">
+        <v>424</v>
+      </c>
+      <c r="AA44">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>232</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>11.98</v>
+      </c>
+      <c r="F45">
+        <v>11.45</v>
+      </c>
+      <c r="G45">
+        <v>9</v>
+      </c>
+      <c r="H45">
+        <v>9</v>
+      </c>
+      <c r="I45">
+        <v>13</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>8</v>
+      </c>
+      <c r="M45">
+        <v>2144</v>
+      </c>
+      <c r="N45">
+        <v>2126</v>
+      </c>
+      <c r="O45">
+        <v>767</v>
+      </c>
+      <c r="P45">
+        <v>1748</v>
+      </c>
+      <c r="Q45">
+        <v>216</v>
+      </c>
+      <c r="R45">
+        <v>638</v>
+      </c>
+      <c r="S45">
+        <v>394</v>
+      </c>
+      <c r="T45">
+        <v>544</v>
+      </c>
+      <c r="U45">
+        <v>337</v>
+      </c>
+      <c r="V45">
+        <v>1068</v>
+      </c>
+      <c r="W45">
+        <v>413</v>
+      </c>
+      <c r="X45">
+        <v>151</v>
+      </c>
+      <c r="Y45">
+        <v>82</v>
+      </c>
+      <c r="Z45">
+        <v>358</v>
+      </c>
+      <c r="AA45">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>235</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>20.82</v>
+      </c>
+      <c r="F46">
+        <v>7.85</v>
+      </c>
+      <c r="G46">
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>17</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>7</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>2514</v>
+      </c>
+      <c r="N46">
+        <v>2073</v>
+      </c>
+      <c r="O46">
+        <v>886</v>
+      </c>
+      <c r="P46">
+        <v>1866</v>
+      </c>
+      <c r="Q46">
+        <v>202</v>
+      </c>
+      <c r="R46">
+        <v>512</v>
+      </c>
+      <c r="S46">
+        <v>540</v>
+      </c>
+      <c r="T46">
+        <v>805</v>
+      </c>
+      <c r="U46">
+        <v>484</v>
+      </c>
+      <c r="V46">
+        <v>1359</v>
+      </c>
+      <c r="W46">
+        <v>595</v>
+      </c>
+      <c r="X46">
+        <v>160</v>
+      </c>
+      <c r="Y46">
+        <v>111</v>
+      </c>
+      <c r="Z46">
+        <v>397</v>
+      </c>
+      <c r="AA46">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>240</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>25</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>3.71</v>
+      </c>
+      <c r="F47">
+        <v>-1.61</v>
+      </c>
+      <c r="G47">
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>12</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>10</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>2215</v>
+      </c>
+      <c r="N47">
+        <v>2017</v>
+      </c>
+      <c r="O47">
+        <v>788</v>
+      </c>
+      <c r="P47">
+        <v>1696</v>
+      </c>
+      <c r="Q47">
+        <v>193</v>
+      </c>
+      <c r="R47">
+        <v>531</v>
+      </c>
+      <c r="S47">
+        <v>446</v>
+      </c>
+      <c r="T47">
+        <v>609</v>
+      </c>
+      <c r="U47">
+        <v>315</v>
+      </c>
+      <c r="V47">
+        <v>1105</v>
+      </c>
+      <c r="W47">
+        <v>427</v>
+      </c>
+      <c r="X47">
+        <v>191</v>
+      </c>
+      <c r="Y47">
+        <v>134</v>
+      </c>
+      <c r="Z47">
+        <v>389</v>
+      </c>
+      <c r="AA47">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>242</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>26</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>19.36</v>
+      </c>
+      <c r="F48">
+        <v>8.69</v>
+      </c>
+      <c r="G48">
+        <v>14</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>16</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>7</v>
+      </c>
+      <c r="L48">
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>2466</v>
+      </c>
+      <c r="N48">
+        <v>2103</v>
+      </c>
+      <c r="O48">
+        <v>875</v>
+      </c>
+      <c r="P48">
+        <v>1957</v>
+      </c>
+      <c r="Q48">
+        <v>235</v>
+      </c>
+      <c r="R48">
+        <v>645</v>
+      </c>
+      <c r="S48">
+        <v>481</v>
+      </c>
+      <c r="T48">
+        <v>673</v>
+      </c>
+      <c r="U48">
+        <v>380</v>
+      </c>
+      <c r="V48">
+        <v>1207</v>
+      </c>
+      <c r="W48">
+        <v>538</v>
+      </c>
+      <c r="X48">
+        <v>211</v>
+      </c>
+      <c r="Y48">
+        <v>141</v>
+      </c>
+      <c r="Z48">
+        <v>354</v>
+      </c>
+      <c r="AA48">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>247</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>29</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>11.23</v>
+      </c>
+      <c r="F49">
+        <v>2.79</v>
+      </c>
+      <c r="G49">
+        <v>13</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>12</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>2577</v>
+      </c>
+      <c r="N49">
+        <v>2265</v>
+      </c>
+      <c r="O49">
+        <v>922</v>
+      </c>
+      <c r="P49">
+        <v>2007</v>
+      </c>
+      <c r="Q49">
+        <v>287</v>
+      </c>
+      <c r="R49">
+        <v>735</v>
+      </c>
+      <c r="S49">
+        <v>446</v>
+      </c>
+      <c r="T49">
+        <v>649</v>
+      </c>
+      <c r="U49">
+        <v>344</v>
+      </c>
+      <c r="V49">
+        <v>1222</v>
+      </c>
+      <c r="W49">
+        <v>548</v>
+      </c>
+      <c r="X49">
+        <v>220</v>
+      </c>
+      <c r="Y49">
+        <v>155</v>
+      </c>
+      <c r="Z49">
+        <v>383</v>
+      </c>
+      <c r="AA49">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>257</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>14</v>
+      </c>
+      <c r="E50">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="F50">
+        <v>-1.08</v>
+      </c>
+      <c r="G50">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>7</v>
+      </c>
+      <c r="I50">
+        <v>8</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>8</v>
+      </c>
+      <c r="L50">
+        <v>8</v>
+      </c>
+      <c r="M50">
+        <v>2069</v>
+      </c>
+      <c r="N50">
+        <v>2042</v>
+      </c>
+      <c r="O50">
+        <v>713</v>
+      </c>
+      <c r="P50">
+        <v>1782</v>
+      </c>
+      <c r="Q50">
+        <v>197</v>
+      </c>
+      <c r="R50">
+        <v>573</v>
+      </c>
+      <c r="S50">
+        <v>446</v>
+      </c>
+      <c r="T50">
+        <v>693</v>
+      </c>
+      <c r="U50">
+        <v>384</v>
+      </c>
+      <c r="V50">
+        <v>1209</v>
+      </c>
+      <c r="W50">
+        <v>383</v>
+      </c>
+      <c r="X50">
+        <v>263</v>
+      </c>
+      <c r="Y50">
+        <v>154</v>
+      </c>
+      <c r="Z50">
+        <v>511</v>
+      </c>
+      <c r="AA50">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>260</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>34</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>17.96</v>
+      </c>
+      <c r="F51">
+        <v>6.36</v>
+      </c>
+      <c r="G51">
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>11</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>2660</v>
+      </c>
+      <c r="N51">
+        <v>2192</v>
+      </c>
+      <c r="O51">
+        <v>991</v>
+      </c>
+      <c r="P51">
+        <v>2141</v>
+      </c>
+      <c r="Q51">
+        <v>223</v>
+      </c>
+      <c r="R51">
+        <v>639</v>
+      </c>
+      <c r="S51">
+        <v>455</v>
+      </c>
+      <c r="T51">
+        <v>653</v>
+      </c>
+      <c r="U51">
+        <v>472</v>
+      </c>
+      <c r="V51">
+        <v>1396</v>
+      </c>
+      <c r="W51">
+        <v>499</v>
+      </c>
+      <c r="X51">
+        <v>227</v>
+      </c>
+      <c r="Y51">
+        <v>170</v>
+      </c>
+      <c r="Z51">
+        <v>402</v>
+      </c>
+      <c r="AA51">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>278</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>19</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>11.52</v>
+      </c>
+      <c r="F52">
+        <v>7.97</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>8</v>
+      </c>
+      <c r="I52">
+        <v>12</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>8</v>
+      </c>
+      <c r="M52">
+        <v>2252</v>
+      </c>
+      <c r="N52">
+        <v>2131</v>
+      </c>
+      <c r="O52">
+        <v>813</v>
+      </c>
+      <c r="P52">
+        <v>1832</v>
+      </c>
+      <c r="Q52">
+        <v>204</v>
+      </c>
+      <c r="R52">
+        <v>577</v>
+      </c>
+      <c r="S52">
+        <v>422</v>
+      </c>
+      <c r="T52">
+        <v>648</v>
+      </c>
+      <c r="U52">
+        <v>340</v>
+      </c>
+      <c r="V52">
+        <v>1153</v>
+      </c>
+      <c r="W52">
+        <v>402</v>
+      </c>
+      <c r="X52">
+        <v>199</v>
+      </c>
+      <c r="Y52">
+        <v>104</v>
+      </c>
+      <c r="Z52">
+        <v>390</v>
+      </c>
+      <c r="AA52">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>287</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>21</v>
+      </c>
+      <c r="D53">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>13.1</v>
+      </c>
+      <c r="F53">
+        <v>10.01</v>
+      </c>
+      <c r="G53">
+        <v>12</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>12</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>7</v>
+      </c>
+      <c r="M53">
+        <v>2313</v>
+      </c>
+      <c r="N53">
+        <v>2211</v>
+      </c>
+      <c r="O53">
+        <v>807</v>
+      </c>
+      <c r="P53">
+        <v>1773</v>
+      </c>
+      <c r="Q53">
+        <v>143</v>
+      </c>
+      <c r="R53">
+        <v>427</v>
+      </c>
+      <c r="S53">
+        <v>556</v>
+      </c>
+      <c r="T53">
+        <v>783</v>
+      </c>
+      <c r="U53">
+        <v>354</v>
+      </c>
+      <c r="V53">
+        <v>1068</v>
+      </c>
+      <c r="W53">
+        <v>417</v>
+      </c>
+      <c r="X53">
+        <v>266</v>
+      </c>
+      <c r="Y53">
+        <v>94</v>
+      </c>
+      <c r="Z53">
+        <v>408</v>
+      </c>
+      <c r="AA53">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>292</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>27</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="F54">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G54">
+        <v>12</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>16</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>6</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>2568</v>
+      </c>
+      <c r="N54">
+        <v>2216</v>
+      </c>
+      <c r="O54">
+        <v>936</v>
+      </c>
+      <c r="P54">
+        <v>1983</v>
+      </c>
+      <c r="Q54">
+        <v>222</v>
+      </c>
+      <c r="R54">
+        <v>628</v>
+      </c>
+      <c r="S54">
+        <v>474</v>
+      </c>
+      <c r="T54">
+        <v>713</v>
+      </c>
+      <c r="U54">
+        <v>429</v>
+      </c>
+      <c r="V54">
+        <v>1308</v>
+      </c>
+      <c r="W54">
+        <v>566</v>
+      </c>
+      <c r="X54">
+        <v>304</v>
+      </c>
+      <c r="Y54">
+        <v>231</v>
+      </c>
+      <c r="Z54">
+        <v>433</v>
+      </c>
+      <c r="AA54">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>293</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>26</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>12.35</v>
+      </c>
+      <c r="F55">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G55">
+        <v>14</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>14</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>7</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>2400</v>
+      </c>
+      <c r="N55">
+        <v>2124</v>
+      </c>
+      <c r="O55">
+        <v>868</v>
+      </c>
+      <c r="P55">
+        <v>1943</v>
+      </c>
+      <c r="Q55">
+        <v>206</v>
+      </c>
+      <c r="R55">
+        <v>583</v>
+      </c>
+      <c r="S55">
+        <v>458</v>
+      </c>
+      <c r="T55">
+        <v>656</v>
+      </c>
+      <c r="U55">
+        <v>374</v>
+      </c>
+      <c r="V55">
+        <v>1218</v>
+      </c>
+      <c r="W55">
+        <v>511</v>
+      </c>
+      <c r="X55">
+        <v>231</v>
+      </c>
+      <c r="Y55">
+        <v>156</v>
+      </c>
+      <c r="Z55">
+        <v>368</v>
+      </c>
+      <c r="AA55">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>297</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>11.08</v>
+      </c>
+      <c r="F56">
+        <v>8.73</v>
+      </c>
+      <c r="G56">
+        <v>8</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+      <c r="I56">
+        <v>10</v>
+      </c>
+      <c r="J56">
+        <v>8</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>2376</v>
+      </c>
+      <c r="N56">
+        <v>2296</v>
+      </c>
+      <c r="O56">
+        <v>837</v>
+      </c>
+      <c r="P56">
+        <v>1941</v>
+      </c>
+      <c r="Q56">
+        <v>175</v>
+      </c>
+      <c r="R56">
+        <v>583</v>
+      </c>
+      <c r="S56">
+        <v>527</v>
+      </c>
+      <c r="T56">
+        <v>770</v>
+      </c>
+      <c r="U56">
+        <v>464</v>
+      </c>
+      <c r="V56">
+        <v>1279</v>
+      </c>
+      <c r="W56">
+        <v>443</v>
+      </c>
+      <c r="X56">
+        <v>250</v>
+      </c>
+      <c r="Y56">
+        <v>126</v>
+      </c>
+      <c r="Z56">
+        <v>454</v>
+      </c>
+      <c r="AA56">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>299</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>12.62</v>
+      </c>
+      <c r="F57">
+        <v>5.94</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>15</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+      <c r="L57">
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>2254</v>
+      </c>
+      <c r="N57">
+        <v>2009</v>
+      </c>
+      <c r="O57">
+        <v>758</v>
+      </c>
+      <c r="P57">
+        <v>1719</v>
+      </c>
+      <c r="Q57">
+        <v>181</v>
+      </c>
+      <c r="R57">
+        <v>534</v>
+      </c>
+      <c r="S57">
+        <v>557</v>
+      </c>
+      <c r="T57">
+        <v>799</v>
+      </c>
+      <c r="U57">
+        <v>412</v>
+      </c>
+      <c r="V57">
+        <v>1193</v>
+      </c>
+      <c r="W57">
+        <v>444</v>
+      </c>
+      <c r="X57">
+        <v>215</v>
+      </c>
+      <c r="Y57">
+        <v>51</v>
+      </c>
+      <c r="Z57">
+        <v>426</v>
+      </c>
+      <c r="AA57">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>304</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>14</v>
+      </c>
+      <c r="E58">
+        <v>-5.8</v>
+      </c>
+      <c r="F58">
+        <v>-4.93</v>
+      </c>
+      <c r="G58">
+        <v>9</v>
+      </c>
+      <c r="H58">
+        <v>7</v>
+      </c>
+      <c r="I58">
+        <v>11</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="L58">
+        <v>10</v>
+      </c>
+      <c r="M58">
+        <v>2384</v>
+      </c>
+      <c r="N58">
+        <v>2363</v>
+      </c>
+      <c r="O58">
+        <v>802</v>
+      </c>
+      <c r="P58">
+        <v>1871</v>
+      </c>
+      <c r="Q58">
+        <v>234</v>
+      </c>
+      <c r="R58">
+        <v>667</v>
+      </c>
+      <c r="S58">
+        <v>546</v>
+      </c>
+      <c r="T58">
+        <v>774</v>
+      </c>
+      <c r="U58">
+        <v>362</v>
+      </c>
+      <c r="V58">
+        <v>1186</v>
+      </c>
+      <c r="W58">
+        <v>430</v>
+      </c>
+      <c r="X58">
+        <v>240</v>
+      </c>
+      <c r="Y58">
+        <v>76</v>
+      </c>
+      <c r="Z58">
+        <v>461</v>
+      </c>
+      <c r="AA58">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>308</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>28</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>20.82</v>
+      </c>
+      <c r="F59">
+        <v>7.96</v>
+      </c>
+      <c r="G59">
+        <v>13</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>16</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>7</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>2701</v>
+      </c>
+      <c r="N59">
+        <v>2238</v>
+      </c>
+      <c r="O59">
+        <v>954</v>
+      </c>
+      <c r="P59">
+        <v>2099</v>
+      </c>
+      <c r="Q59">
+        <v>201</v>
+      </c>
+      <c r="R59">
+        <v>535</v>
+      </c>
+      <c r="S59">
+        <v>592</v>
+      </c>
+      <c r="T59">
+        <v>905</v>
+      </c>
+      <c r="U59">
+        <v>494</v>
+      </c>
+      <c r="V59">
+        <v>1452</v>
+      </c>
+      <c r="W59">
+        <v>485</v>
+      </c>
+      <c r="X59">
+        <v>207</v>
+      </c>
+      <c r="Y59">
+        <v>183</v>
+      </c>
+      <c r="Z59">
+        <v>425</v>
+      </c>
+      <c r="AA59">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>314</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>23</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>11.7</v>
+      </c>
+      <c r="F60">
+        <v>7.93</v>
+      </c>
+      <c r="G60">
+        <v>13</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>16</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>5</v>
+      </c>
+      <c r="L60">
+        <v>5</v>
+      </c>
+      <c r="M60">
+        <v>2382</v>
+      </c>
+      <c r="N60">
+        <v>2254</v>
+      </c>
+      <c r="O60">
+        <v>830</v>
+      </c>
+      <c r="P60">
+        <v>1824</v>
+      </c>
+      <c r="Q60">
+        <v>173</v>
+      </c>
+      <c r="R60">
+        <v>529</v>
+      </c>
+      <c r="S60">
+        <v>549</v>
+      </c>
+      <c r="T60">
+        <v>808</v>
+      </c>
+      <c r="U60">
+        <v>405</v>
+      </c>
+      <c r="V60">
+        <v>1265</v>
+      </c>
+      <c r="W60">
+        <v>493</v>
+      </c>
+      <c r="X60">
+        <v>186</v>
+      </c>
+      <c r="Y60">
+        <v>198</v>
+      </c>
+      <c r="Z60">
+        <v>502</v>
+      </c>
+      <c r="AA60">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>315</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>30</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>13.23</v>
+      </c>
+      <c r="F61">
+        <v>0.5</v>
+      </c>
+      <c r="G61">
+        <v>15</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>17</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>11</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>2449</v>
+      </c>
+      <c r="N61">
+        <v>1995</v>
+      </c>
+      <c r="O61">
+        <v>840</v>
+      </c>
+      <c r="P61">
+        <v>1788</v>
+      </c>
+      <c r="Q61">
+        <v>206</v>
+      </c>
+      <c r="R61">
+        <v>562</v>
+      </c>
+      <c r="S61">
+        <v>563</v>
+      </c>
+      <c r="T61">
+        <v>764</v>
+      </c>
+      <c r="U61">
+        <v>363</v>
+      </c>
+      <c r="V61">
+        <v>1266</v>
+      </c>
+      <c r="W61">
+        <v>500</v>
+      </c>
+      <c r="X61">
+        <v>162</v>
+      </c>
+      <c r="Y61">
+        <v>110</v>
+      </c>
+      <c r="Z61">
+        <v>402</v>
+      </c>
+      <c r="AA61">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>319</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>23</v>
+      </c>
+      <c r="D62">
+        <v>11</v>
+      </c>
+      <c r="E62">
+        <v>15.1</v>
+      </c>
+      <c r="F62">
+        <v>6.86</v>
+      </c>
+      <c r="G62">
+        <v>9</v>
+      </c>
+      <c r="H62">
+        <v>7</v>
+      </c>
+      <c r="I62">
+        <v>14</v>
+      </c>
+      <c r="J62">
+        <v>3</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+      <c r="L62">
+        <v>5</v>
+      </c>
+      <c r="M62">
+        <v>2581</v>
+      </c>
+      <c r="N62">
+        <v>2301</v>
+      </c>
+      <c r="O62">
+        <v>848</v>
+      </c>
+      <c r="P62">
+        <v>1853</v>
+      </c>
+      <c r="Q62">
+        <v>263</v>
+      </c>
+      <c r="R62">
+        <v>708</v>
+      </c>
+      <c r="S62">
+        <v>622</v>
+      </c>
+      <c r="T62">
+        <v>837</v>
+      </c>
+      <c r="U62">
+        <v>370</v>
+      </c>
+      <c r="V62">
+        <v>1255</v>
+      </c>
+      <c r="W62">
+        <v>454</v>
+      </c>
+      <c r="X62">
+        <v>175</v>
+      </c>
+      <c r="Y62">
+        <v>162</v>
+      </c>
+      <c r="Z62">
+        <v>441</v>
+      </c>
+      <c r="AA62">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>321</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <v>12</v>
+      </c>
+      <c r="E63">
+        <v>15.05</v>
+      </c>
+      <c r="F63">
+        <v>8.23</v>
+      </c>
+      <c r="G63">
+        <v>9</v>
+      </c>
+      <c r="H63">
+        <v>9</v>
+      </c>
+      <c r="I63">
+        <v>13</v>
+      </c>
+      <c r="J63">
+        <v>4</v>
+      </c>
+      <c r="K63">
+        <v>7</v>
+      </c>
+      <c r="L63">
+        <v>5</v>
+      </c>
+      <c r="M63">
+        <v>2384</v>
+      </c>
+      <c r="N63">
+        <v>2159</v>
+      </c>
+      <c r="O63">
+        <v>796</v>
+      </c>
+      <c r="P63">
+        <v>1819</v>
+      </c>
+      <c r="Q63">
+        <v>210</v>
+      </c>
+      <c r="R63">
+        <v>604</v>
+      </c>
+      <c r="S63">
+        <v>582</v>
+      </c>
+      <c r="T63">
+        <v>769</v>
+      </c>
+      <c r="U63">
+        <v>402</v>
+      </c>
+      <c r="V63">
+        <v>1223</v>
+      </c>
+      <c r="W63">
+        <v>450</v>
+      </c>
+      <c r="X63">
+        <v>208</v>
+      </c>
+      <c r="Y63">
+        <v>125</v>
+      </c>
+      <c r="Z63">
+        <v>392</v>
+      </c>
+      <c r="AA63">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>322</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>28</v>
+      </c>
+      <c r="D64">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>8.56</v>
+      </c>
+      <c r="F64">
+        <v>3.78</v>
+      </c>
+      <c r="G64">
+        <v>12</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+      <c r="I64">
+        <v>11</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>8</v>
+      </c>
+      <c r="L64">
+        <v>6</v>
+      </c>
+      <c r="M64">
+        <v>2864</v>
+      </c>
+      <c r="N64">
+        <v>2673</v>
+      </c>
+      <c r="O64">
+        <v>968</v>
+      </c>
+      <c r="P64">
+        <v>2228</v>
+      </c>
+      <c r="Q64">
+        <v>339</v>
+      </c>
+      <c r="R64">
+        <v>917</v>
+      </c>
+      <c r="S64">
+        <v>589</v>
+      </c>
+      <c r="T64">
+        <v>824</v>
+      </c>
+      <c r="U64">
+        <v>428</v>
+      </c>
+      <c r="V64">
+        <v>1292</v>
+      </c>
+      <c r="W64">
+        <v>583</v>
+      </c>
+      <c r="X64">
+        <v>328</v>
+      </c>
+      <c r="Y64">
+        <v>140</v>
+      </c>
+      <c r="Z64">
+        <v>452</v>
+      </c>
+      <c r="AA64">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>329</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
+      <c r="D65">
+        <v>11</v>
+      </c>
+      <c r="E65">
+        <v>20.12</v>
+      </c>
+      <c r="F65">
+        <v>7.74</v>
+      </c>
+      <c r="G65">
+        <v>11</v>
+      </c>
+      <c r="H65">
+        <v>7</v>
+      </c>
+      <c r="I65">
+        <v>14</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>5</v>
+      </c>
+      <c r="L65">
+        <v>6</v>
+      </c>
+      <c r="M65">
+        <v>2907</v>
+      </c>
+      <c r="N65">
+        <v>2474</v>
+      </c>
+      <c r="O65">
+        <v>1061</v>
+      </c>
+      <c r="P65">
+        <v>2260</v>
+      </c>
+      <c r="Q65">
+        <v>305</v>
+      </c>
+      <c r="R65">
+        <v>821</v>
+      </c>
+      <c r="S65">
+        <v>480</v>
+      </c>
+      <c r="T65">
+        <v>712</v>
+      </c>
+      <c r="U65">
+        <v>488</v>
+      </c>
+      <c r="V65">
+        <v>1367</v>
+      </c>
+      <c r="W65">
+        <v>593</v>
+      </c>
+      <c r="X65">
+        <v>234</v>
+      </c>
+      <c r="Y65">
+        <v>179</v>
+      </c>
+      <c r="Z65">
+        <v>426</v>
+      </c>
+      <c r="AA65">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>331</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="F66">
+        <v>11.03</v>
+      </c>
+      <c r="G66">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>7</v>
+      </c>
+      <c r="I66">
+        <v>12</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <v>4</v>
+      </c>
+      <c r="L66">
+        <v>6</v>
+      </c>
+      <c r="M66">
+        <v>2303</v>
+      </c>
+      <c r="N66">
+        <v>2134</v>
+      </c>
+      <c r="O66">
+        <v>783</v>
+      </c>
+      <c r="P66">
+        <v>1826</v>
+      </c>
+      <c r="Q66">
+        <v>206</v>
+      </c>
+      <c r="R66">
+        <v>611</v>
+      </c>
+      <c r="S66">
+        <v>531</v>
+      </c>
+      <c r="T66">
+        <v>747</v>
+      </c>
+      <c r="U66">
+        <v>469</v>
+      </c>
+      <c r="V66">
+        <v>1227</v>
+      </c>
+      <c r="W66">
+        <v>491</v>
+      </c>
+      <c r="X66">
+        <v>154</v>
+      </c>
+      <c r="Y66">
+        <v>136</v>
+      </c>
+      <c r="Z66">
+        <v>397</v>
+      </c>
+      <c r="AA66">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>339</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>25</v>
+      </c>
+      <c r="D67">
+        <v>9</v>
+      </c>
+      <c r="E67">
+        <v>18.77</v>
+      </c>
+      <c r="F67">
+        <v>9.42</v>
+      </c>
+      <c r="G67">
+        <v>13</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>16</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>5</v>
+      </c>
+      <c r="L67">
+        <v>6</v>
+      </c>
+      <c r="M67">
+        <v>2310</v>
+      </c>
+      <c r="N67">
+        <v>1992</v>
+      </c>
+      <c r="O67">
+        <v>798</v>
+      </c>
+      <c r="P67">
+        <v>1808</v>
+      </c>
+      <c r="Q67">
+        <v>278</v>
+      </c>
+      <c r="R67">
+        <v>744</v>
+      </c>
+      <c r="S67">
+        <v>436</v>
+      </c>
+      <c r="T67">
+        <v>533</v>
+      </c>
+      <c r="U67">
+        <v>355</v>
+      </c>
+      <c r="V67">
+        <v>1088</v>
+      </c>
+      <c r="W67">
+        <v>442</v>
+      </c>
+      <c r="X67">
+        <v>121</v>
+      </c>
+      <c r="Y67">
+        <v>105</v>
+      </c>
+      <c r="Z67">
+        <v>258</v>
+      </c>
+      <c r="AA67">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>340</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>21</v>
+      </c>
+      <c r="D68">
+        <v>13</v>
+      </c>
+      <c r="E68">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F68">
+        <v>-1.21</v>
+      </c>
+      <c r="G68">
+        <v>14</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>8</v>
+      </c>
+      <c r="J68">
+        <v>4</v>
+      </c>
+      <c r="K68">
+        <v>8</v>
+      </c>
+      <c r="L68">
+        <v>6</v>
+      </c>
+      <c r="M68">
+        <v>2502</v>
+      </c>
+      <c r="N68">
+        <v>2313</v>
+      </c>
+      <c r="O68">
+        <v>883</v>
+      </c>
+      <c r="P68">
+        <v>1853</v>
+      </c>
+      <c r="Q68">
+        <v>197</v>
+      </c>
+      <c r="R68">
+        <v>493</v>
+      </c>
+      <c r="S68">
+        <v>539</v>
+      </c>
+      <c r="T68">
+        <v>778</v>
+      </c>
+      <c r="U68">
+        <v>372</v>
+      </c>
+      <c r="V68">
+        <v>1108</v>
+      </c>
+      <c r="W68">
+        <v>487</v>
+      </c>
+      <c r="X68">
+        <v>227</v>
+      </c>
+      <c r="Y68">
+        <v>86</v>
+      </c>
+      <c r="Z68">
+        <v>404</v>
+      </c>
+      <c r="AA68">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>343</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>24</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>11.88</v>
+      </c>
+      <c r="F69">
+        <v>4.41</v>
+      </c>
+      <c r="G69">
+        <v>15</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>14</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>7</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+      <c r="M69">
+        <v>2306</v>
+      </c>
+      <c r="N69">
+        <v>2067</v>
+      </c>
+      <c r="O69">
+        <v>784</v>
+      </c>
+      <c r="P69">
+        <v>1700</v>
+      </c>
+      <c r="Q69">
+        <v>173</v>
+      </c>
+      <c r="R69">
+        <v>526</v>
+      </c>
+      <c r="S69">
+        <v>565</v>
+      </c>
+      <c r="T69">
+        <v>756</v>
+      </c>
+      <c r="U69">
+        <v>328</v>
+      </c>
+      <c r="V69">
+        <v>1130</v>
+      </c>
+      <c r="W69">
+        <v>424</v>
+      </c>
+      <c r="X69">
+        <v>174</v>
+      </c>
+      <c r="Y69">
+        <v>98</v>
+      </c>
+      <c r="Z69">
+        <v>386</v>
+      </c>
+      <c r="AA69">
+        <v>551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/formatted/basicdata201011.xlsx
+++ b/data/formatted/basicdata201011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74483A3A-E6A2-46DA-BE57-779495E914AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B836CF-F882-4FCD-89F9-3A6E66F537A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{B36472CF-8BC0-4C42-91DD-E1678EA5732D}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{B36472CF-8BC0-4C42-91DD-E1678EA5732D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata201011.xlsx
+++ b/data/formatted/basicdata201011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B836CF-F882-4FCD-89F9-3A6E66F537A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B91D4FB-D8E8-429B-9055-D83A7A81AEED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{B36472CF-8BC0-4C42-91DD-E1678EA5732D}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{B36472CF-8BC0-4C42-91DD-E1678EA5732D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata201011.xlsx
+++ b/data/formatted/basicdata201011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B91D4FB-D8E8-429B-9055-D83A7A81AEED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EE080D-7023-434D-91F0-0D76EC684486}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{B36472CF-8BC0-4C42-91DD-E1678EA5732D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B36472CF-8BC0-4C42-91DD-E1678EA5732D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,208 +114,208 @@
     <t>PersonalFouls</t>
   </si>
   <si>
-    <t>Akron NCAA</t>
-  </si>
-  <si>
-    <t>Alabama-Birmingham NCAA</t>
-  </si>
-  <si>
-    <t>Alabama State NCAA</t>
-  </si>
-  <si>
-    <t>Arizona NCAA</t>
-  </si>
-  <si>
-    <t>Little Rock NCAA</t>
-  </si>
-  <si>
-    <t>Belmont NCAA</t>
-  </si>
-  <si>
-    <t>Boston University NCAA</t>
-  </si>
-  <si>
-    <t>Brigham Young NCAA</t>
-  </si>
-  <si>
-    <t>Bucknell NCAA</t>
-  </si>
-  <si>
-    <t>Butler NCAA</t>
-  </si>
-  <si>
-    <t>UC-Santa Barbara NCAA</t>
-  </si>
-  <si>
-    <t>Cincinnati NCAA</t>
-  </si>
-  <si>
-    <t>Clemson NCAA</t>
-  </si>
-  <si>
-    <t>Connecticut NCAA</t>
-  </si>
-  <si>
-    <t>Duke NCAA</t>
-  </si>
-  <si>
-    <t>Florida State NCAA</t>
-  </si>
-  <si>
-    <t>Florida NCAA</t>
-  </si>
-  <si>
-    <t>George Mason NCAA</t>
-  </si>
-  <si>
-    <t>Georgetown NCAA</t>
-  </si>
-  <si>
-    <t>Georgia NCAA</t>
-  </si>
-  <si>
-    <t>Gonzaga NCAA</t>
-  </si>
-  <si>
-    <t>Hampton NCAA</t>
-  </si>
-  <si>
-    <t>Illinois NCAA</t>
-  </si>
-  <si>
-    <t>Indiana State NCAA</t>
-  </si>
-  <si>
-    <t>Kansas State NCAA</t>
-  </si>
-  <si>
-    <t>Kansas NCAA</t>
-  </si>
-  <si>
-    <t>Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Long Island University NCAA</t>
-  </si>
-  <si>
-    <t>Louisville NCAA</t>
-  </si>
-  <si>
-    <t>Marquette NCAA</t>
-  </si>
-  <si>
-    <t>Memphis NCAA</t>
-  </si>
-  <si>
-    <t>Michigan State NCAA</t>
-  </si>
-  <si>
-    <t>Michigan NCAA</t>
-  </si>
-  <si>
-    <t>Missouri NCAA</t>
-  </si>
-  <si>
-    <t>Morehead State NCAA</t>
-  </si>
-  <si>
-    <t>Nevada-Las Vegas NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina-Asheville NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina NCAA</t>
-  </si>
-  <si>
-    <t>Northern Colorado NCAA</t>
-  </si>
-  <si>
-    <t>Notre Dame NCAA</t>
-  </si>
-  <si>
-    <t>Oakland NCAA</t>
-  </si>
-  <si>
-    <t>Ohio State NCAA</t>
-  </si>
-  <si>
-    <t>Old Dominion NCAA</t>
-  </si>
-  <si>
-    <t>Penn State NCAA</t>
-  </si>
-  <si>
-    <t>Pittsburgh NCAA</t>
-  </si>
-  <si>
-    <t>Princeton NCAA</t>
-  </si>
-  <si>
-    <t>Purdue NCAA</t>
-  </si>
-  <si>
-    <t>Richmond NCAA</t>
-  </si>
-  <si>
-    <t>Saint Peter's NCAA</t>
-  </si>
-  <si>
-    <t>San Diego State NCAA</t>
-  </si>
-  <si>
-    <t>Southern California NCAA</t>
-  </si>
-  <si>
-    <t>St. John's (NY) NCAA</t>
-  </si>
-  <si>
-    <t>Syracuse NCAA</t>
-  </si>
-  <si>
-    <t>Temple NCAA</t>
-  </si>
-  <si>
-    <t>Tennessee NCAA</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M NCAA</t>
-  </si>
-  <si>
-    <t>Texas-San Antonio NCAA</t>
-  </si>
-  <si>
-    <t>Texas NCAA</t>
-  </si>
-  <si>
-    <t>UCLA NCAA</t>
-  </si>
-  <si>
-    <t>Utah State NCAA</t>
-  </si>
-  <si>
-    <t>Vanderbilt NCAA</t>
-  </si>
-  <si>
-    <t>Villanova NCAA</t>
-  </si>
-  <si>
-    <t>Virginia Commonwealth NCAA</t>
-  </si>
-  <si>
-    <t>Washington NCAA</t>
-  </si>
-  <si>
-    <t>West Virginia NCAA</t>
-  </si>
-  <si>
-    <t>Wisconsin NCAA</t>
-  </si>
-  <si>
-    <t>Wofford NCAA</t>
-  </si>
-  <si>
-    <t>Xavier NCAA</t>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>Alabama-Birmingham</t>
+  </si>
+  <si>
+    <t>Alabama State</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Little Rock</t>
+  </si>
+  <si>
+    <t>Belmont</t>
+  </si>
+  <si>
+    <t>Boston University</t>
+  </si>
+  <si>
+    <t>Brigham Young</t>
+  </si>
+  <si>
+    <t>Bucknell</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>UC-Santa Barbara</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Florida State</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>George Mason</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana State</t>
+  </si>
+  <si>
+    <t>Kansas State</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Long Island University</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Morehead State</t>
+  </si>
+  <si>
+    <t>Nevada-Las Vegas</t>
+  </si>
+  <si>
+    <t>North Carolina-Asheville</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Northern Colorado</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Oakland</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Saint Peter's</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
+    <t>Southern California</t>
+  </si>
+  <si>
+    <t>St. John's (NY)</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Texas-San Antonio</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Virginia Commonwealth</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wofford</t>
+  </si>
+  <si>
+    <t>Xavier</t>
   </si>
 </sst>
 </file>
